--- a/data/cadastroalunos.xlsx
+++ b/data/cadastroalunos.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,96 +451,29 @@
           <t>Semestre</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>teste</t>
+          <t>luigi</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>202401504068</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>pedro arthur</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>202402011481</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Lucas Rodor</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>teste</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>teste2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>testeee</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2</t>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>luigipedrosoajello@gmail.com</t>
         </is>
       </c>
     </row>
@@ -555,7 +488,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -578,7 +511,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -590,7 +523,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -602,7 +535,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -614,7 +547,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -626,312 +559,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Design</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>202401504068</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Cálculo 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>202401504068</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Métodos Ágeis de Desenvolvimento de Software</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>202401504068</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Desenvolvimento Web</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>202401504068</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Projeto Aplicado de Ciências de Dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>202401504068</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Design</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>202402011481</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Cálculo 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>202402011481</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Métodos Ágeis de Desenvolvimento de Software</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>202402011481</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Desenvolvimento Web</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>202402011481</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Projeto Aplicado de Ciências de Dados</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>202402011481</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Design</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Matéria vaga</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Matéria vaga</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Matéria vaga</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Matéria vaga</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Matéria vaga</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Pensamento Computacional</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Programação Estruturada</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Matemática Discreta</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Álgebra Linear</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Cálculo 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Pensamento Computacional</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Programação Estruturada</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Matemática Discreta</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Álgebra Linear</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Matéria vaga</t>
         </is>
       </c>
     </row>
@@ -946,7 +579,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -970,26 +603,36 @@
           <t>Disciplina</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Aprovação</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>Cálculo 2</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1000,11 +643,16 @@
           <t>Métodos Ágeis de Desenvolvimento de Software</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1015,26 +663,36 @@
           <t>Desenvolvimento Web</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>Projeto Aplicado de Ciências de Dados</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Reprovado</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1042,52 +700,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Métodos Ágeis de Desenvolvimento de Software</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>202401504068</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Cálculo 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>202401504068</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>10</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Métodos Ágeis de Desenvolvimento de Software</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>202402011481</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>10</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Cálculo 2</t>
+          <t>Design</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
         </is>
       </c>
     </row>
